--- a/data/income_statement/2digits/size/95_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/95_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>95-Repair of computers and personal and household goods</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>95-Repair of computers and personal and household goods</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,263 +841,298 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>295660.64263</v>
+        <v>305425.50212</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>323789.69969</v>
+        <v>332393.57593</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>413895.36781</v>
+        <v>427921.97958</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>361516.99938</v>
+        <v>371552.2482</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>313792.75166</v>
+        <v>331388.9699199999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>358620.25985</v>
+        <v>372660.97814</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>330996.71869</v>
+        <v>351437.20838</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>328882.35354</v>
+        <v>354786.83176</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>380886.90747</v>
+        <v>420901.4743</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>625650.47147</v>
+        <v>662735.43883</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>629739.9554099999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>709100.05979</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>766761.088</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>282659.2523</v>
+        <v>291075.50154</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>310133.13962</v>
+        <v>318070.20203</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>395790.1101</v>
+        <v>408963.4391</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>346032.69415</v>
+        <v>355471.38783</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>297641.06024</v>
+        <v>314209.16694</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>338532.58623</v>
+        <v>351451.06011</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>316280.55168</v>
+        <v>336047.42035</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>309522.7335</v>
+        <v>334401.6636</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>352131.77623</v>
+        <v>390022.65063</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>598320.85074</v>
+        <v>630229.52608</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>598864.7694199999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>669106.25781</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>728025.1629999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5486.61069</v>
+        <v>6749.638910000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>5037.84644</v>
+        <v>5370.10133</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6381.584529999999</v>
+        <v>7177.53216</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6881.6955</v>
+        <v>7168.15425</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>7562.88114</v>
+        <v>7671.364119999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11211.54299</v>
+        <v>12249.06952</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4263.97218</v>
+        <v>4428.38003</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7405.882860000001</v>
+        <v>7884.31092</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>16285.40888</v>
+        <v>17369.60152</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9261.935719999999</v>
+        <v>14146.19464</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11686.55865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15902.94594</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19735.437</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7514.779640000001</v>
+        <v>7600.36167</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>8618.71363</v>
+        <v>8953.272570000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11723.67318</v>
+        <v>11781.00832</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>8602.60973</v>
+        <v>8912.706120000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>8588.81028</v>
+        <v>9508.43886</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8876.13063</v>
+        <v>8960.84851</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>10452.19483</v>
+        <v>10961.408</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>11953.73718</v>
+        <v>12500.85724</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>12469.72236</v>
+        <v>13509.22215</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>18067.68501</v>
+        <v>18359.71811</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>19188.62734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>24090.85604</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19000.488</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3931.58076</v>
+        <v>4060.31959</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2609.5278</v>
+        <v>3454.05376</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1766.62015</v>
+        <v>1862.91994</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1834.4825</v>
+        <v>2026.54562</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1501.14899</v>
+        <v>1636.8912</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1143.26218</v>
+        <v>1161.16958</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1434.92765</v>
+        <v>1438.83972</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1075.10678</v>
+        <v>1206.74949</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>790.44573</v>
+        <v>883.3022199999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3441.652849999999</v>
+        <v>3448.63773</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2736.62406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2953.60725</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>9304.297</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3138.50199</v>
+        <v>3205.49688</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2513.35539</v>
+        <v>3319.38847</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1513.82555</v>
+        <v>1550.18349</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1732.12193</v>
+        <v>1901.98511</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1412.74861</v>
+        <v>1548.44082</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1079.53405</v>
+        <v>1097.44145</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1386.40093</v>
+        <v>1390.313</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1011.64713</v>
+        <v>1108.04569</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>749.62602</v>
+        <v>823.8535900000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3164.47495</v>
+        <v>3165.73484</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2498.95533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2698.76241</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>9032.950999999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>704.1404099999999</v>
+        <v>765.8843499999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>77.48813</v>
+        <v>115.98101</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>232.59271</v>
+        <v>292.53456</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>74.57527999999999</v>
+        <v>96.77522</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>21.70237</v>
+        <v>21.75237</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>25.75119</v>
@@ -1205,22 +1141,27 @@
         <v>37.97782</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>29.23684</v>
+        <v>59.35561</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>27.33174</v>
+        <v>40.48333</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>96.45235000000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>103.66091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>120.83702</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>211.836</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>88.93836</v>
@@ -1244,223 +1185,253 @@
         <v>10.5489</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>34.22281</v>
+        <v>39.34819</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>13.48797</v>
+        <v>18.9653</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>180.72555</v>
+        <v>186.45054</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>134.00782</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>59.51</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>291729.06187</v>
+        <v>301365.18253</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>321180.17189</v>
+        <v>328939.52217</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>412128.74766</v>
+        <v>426059.05964</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>359682.51688</v>
+        <v>369525.70258</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>312291.6026699999</v>
+        <v>329752.07872</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>357476.99767</v>
+        <v>371499.80856</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>329561.79104</v>
+        <v>349998.36866</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>327807.24676</v>
+        <v>353580.08227</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>380096.46174</v>
+        <v>420018.17208</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>622208.81862</v>
+        <v>659286.8011</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>627003.33135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>706146.45254</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>757456.791</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>217452.0657</v>
+        <v>225019.05214</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>242316.763</v>
+        <v>248056.94579</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>323078.26289</v>
+        <v>333694.68889</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>268690.63391</v>
+        <v>275790.8212</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>232133.87321</v>
+        <v>244626.6666</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>272585.73193</v>
+        <v>282267.98346</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>245636.02389</v>
+        <v>261489.71667</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>238374.38291</v>
+        <v>255855.94013</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>288710.24404</v>
+        <v>315785.94008</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>474146.54037</v>
+        <v>502099.04429</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>477882.25197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>538538.51804</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>587722.47</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>15031.15776</v>
+        <v>17064.013</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>17124.17705</v>
+        <v>18422.72334</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>20786.80544</v>
+        <v>23987.44414</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>19225.17057</v>
+        <v>21585.87225</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>16759.65204</v>
+        <v>18928.83238</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16064.11974</v>
+        <v>16948.42403</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>14657.87766</v>
+        <v>16591.74268</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15258.67335</v>
+        <v>16389.18192</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>18318.72761</v>
+        <v>20671.37855</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>34761.82006000001</v>
+        <v>35105.56132</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>37310.88589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>41975.21188</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>31487.98</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>154901.9667</v>
+        <v>158661.07399</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>176643.0169</v>
+        <v>179318.51299</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>249246.94715</v>
+        <v>255349.06501</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>190840.78389</v>
+        <v>194095.94894</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>162111.01166</v>
+        <v>169217.70874</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>201295.3873</v>
+        <v>209438.64149</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>173084.69825</v>
+        <v>183830.86191</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>165037.79882</v>
+        <v>176988.24275</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>191814.74819</v>
+        <v>208822.42573</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>322381.49372</v>
+        <v>343700.16821</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>309761.24442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>355934.49549</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>429065.681</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>47310.71893</v>
+        <v>49085.74284000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>48485.49183</v>
+        <v>50117.78351</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>52890.58057</v>
+        <v>54204.25001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>58446.31582</v>
+        <v>59930.63638</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>52187.31147</v>
+        <v>55363.92623</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>54805.43365000001</v>
+        <v>55455.72136</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>57231.6669</v>
+        <v>60390.47951</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>57277.4575</v>
+        <v>61597.20443999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>78049.85025</v>
+        <v>85400.32947</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>114416.42471</v>
+        <v>119489.08968</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>129126.64363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>138350.64379</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>125218.199</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>208.22231</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>64.07722</v>
+        <v>197.92595</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>153.92973</v>
@@ -1469,109 +1440,124 @@
         <v>178.36363</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1075.89804</v>
+        <v>1116.19925</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>420.79124</v>
+        <v>425.19658</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>661.78108</v>
+        <v>676.63257</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>800.4532399999999</v>
+        <v>881.31102</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>526.91799</v>
+        <v>891.80633</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2586.80188</v>
+        <v>3804.22508</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1683.47803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2278.16688</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1950.61</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>74276.99617</v>
+        <v>76346.13039000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>78863.40889000001</v>
+        <v>80882.57638</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>89050.48477</v>
+        <v>92364.37075</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>90991.88297000001</v>
+        <v>93734.88137999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>80157.72946</v>
+        <v>85125.41212000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>84891.26574</v>
+        <v>89231.82509999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>83925.76715</v>
+        <v>88508.65199000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>89432.86384999999</v>
+        <v>97724.14214</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>91386.21770000001</v>
+        <v>104232.232</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>148062.27825</v>
+        <v>157187.75681</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>149121.07938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>167607.9345</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>169734.321</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>65826.83434</v>
+        <v>67944.56881</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>68546.61856</v>
+        <v>69851.54857</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>77710.70590999999</v>
+        <v>80730.41588</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>78952.6649</v>
+        <v>82237.90559000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>71932.27928</v>
+        <v>77372.18120000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>75257.41056</v>
+        <v>79179.34914000001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>71713.50212999999</v>
+        <v>76590.53217000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>81661.75691</v>
+        <v>92541.51768</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>87633.80865000001</v>
+        <v>98438.38868999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>130690.01436</v>
+        <v>139414.98775</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>139618.50732</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>152907.58919</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>143770.4</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>994.0270400000001</v>
@@ -1583,7 +1569,7 @@
         <v>539.20253</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>402.87445</v>
+        <v>607.65326</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>437.94823</v>
@@ -1592,10 +1578,10 @@
         <v>143.61565</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2.64723</v>
+        <v>11.82847</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>19.50842</v>
+        <v>2106.9659</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>262.48356</v>
@@ -1604,172 +1590,197 @@
         <v>108.19626</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>361.12101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>365.08908</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>161.273</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8645.53203</v>
+        <v>8902.248089999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8482.30926</v>
+        <v>8539.41395</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>11415.43766</v>
+        <v>12347.72115</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11049.53657</v>
+        <v>11432.9911</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>11069.39736</v>
+        <v>11816.58198</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>12979.6302</v>
+        <v>13146.17338</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11667.65873</v>
+        <v>11992.26919</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11699.32235</v>
+        <v>12839.00029</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>12968.02778</v>
+        <v>14485.45863</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>21919.58921</v>
+        <v>22989.51992</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22834.41885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26221.96194</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>22018.542</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>56187.27527000001</v>
+        <v>58048.29368</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>58789.48371</v>
+        <v>60037.30903</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>65756.06572</v>
+        <v>67843.49219999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>67500.25387999999</v>
+        <v>70197.26122999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>60424.93369</v>
+        <v>65117.65098999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>62134.16471</v>
+        <v>65889.56011000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>60043.19617</v>
+        <v>64586.43451</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>69942.92614</v>
+        <v>77595.55149</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>74403.29731000001</v>
+        <v>83690.44650000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>108662.22889</v>
+        <v>116317.27157</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>116422.96746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>126320.53817</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>121590.585</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>8450.161830000001</v>
+        <v>8401.56158</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>10316.79033</v>
+        <v>11031.02781</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>11339.77886</v>
+        <v>11633.95487</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>12039.21807</v>
+        <v>11496.97579</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>8225.45018</v>
+        <v>7753.23092</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>9633.85518</v>
+        <v>10052.47596</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12212.26502</v>
+        <v>11918.11982</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7771.10694</v>
+        <v>5182.62446</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3752.40905</v>
+        <v>5793.84331</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>17372.26389</v>
+        <v>17772.76906</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9502.57206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14700.34531</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>25963.921</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1836.20029</v>
+        <v>2516.57041</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1604.63574</v>
+        <v>1620.04201</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2050.48792</v>
+        <v>2134.70729</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1713.88497</v>
+        <v>1805.4405</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1565.75322</v>
+        <v>1915.25904</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1555.2928</v>
+        <v>2714.92267</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1971.88031</v>
+        <v>2707.74495</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2353.24593</v>
+        <v>3187.99603</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2240.78367</v>
+        <v>3561.48793</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6587.440550000001</v>
+        <v>10334.01517</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5334.13711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6209.81302</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>15880.689</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>26.9338</v>
+        <v>46.91533</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>3.62044</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>45.62676999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>291.67442</v>
+        <v>328.66821</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>263.82329</v>
+        <v>264.66061</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>300.18209</v>
+        <v>343.10707</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>219.80634</v>
+        <v>241.18248</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>117.63055</v>
+        <v>244.09059</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>155.3224</v>
+        <v>227.75237</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>211.18639</v>
+        <v>271.35306</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>283.44263</v>
+        <v>331.51545</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>292.84608</v>
+        <v>459.42902</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1043.82692</v>
+        <v>1131.15174</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1085.75217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1138.24806</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2055.405</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>319.29421</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>265.67475</v>
+        <v>265.73725</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>359.78569</v>
+        <v>360.53681</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>145.70034</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>311.67229</v>
+        <v>311.9026500000001</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>149.46542</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>79.98788</v>
+        <v>86.76788000000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>98.28257000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>90.32328</v>
+        <v>90.89494000000001</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>107.58688</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>75.48944999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>59.684</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0.23757</v>
@@ -1937,7 +1968,7 @@
         <v>0.31184</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>5.716</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>0</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>66.84142</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>212.937</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>19.81237</v>
+        <v>20.0089</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>23.89396</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>26.58454</v>
+        <v>26.5848</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>45.79979</v>
+        <v>45.7999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4.849690000000001</v>
+        <v>33.39576</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7.144559999999999</v>
+        <v>9.120380000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>20.3644</v>
+        <v>45.54895</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13.99563</v>
+        <v>14.97869</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>12.01583</v>
+        <v>12.20606</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>46.98988</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>85.57255000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>86.08742000000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>114.908</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>303.4169</v>
+        <v>785.6987799999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>250.25211</v>
+        <v>264.67306</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>453.93473</v>
+        <v>492.86225</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>183.87467</v>
+        <v>221.03761</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>496.10575</v>
+        <v>641.2358099999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>588.21093</v>
+        <v>1543.00053</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>913.7928999999999</v>
+        <v>1283.58291</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>728.28612</v>
+        <v>1215.83067</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>384.53685</v>
+        <v>1033.07892</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3696.3582</v>
+        <v>7037.168140000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1958.7946</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2546.70804</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11340.678</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>21.7634</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>68.58457000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>853.06762</v>
+        <v>993.98401</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>793.4247999999999</v>
+        <v>793.5103</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>874.8816400000001</v>
+        <v>876.49713</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1109.83427</v>
+        <v>1142.85061</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>617.7090700000001</v>
+        <v>661.1323599999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>632.0526799999999</v>
+        <v>762.4871599999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>721.5290500000001</v>
+        <v>995.47246</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1155.62433</v>
+        <v>1453.774</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1422.22955</v>
+        <v>1927.04691</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1318.71821</v>
+        <v>1637.15807</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1947.47558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2182.22729</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2096.537</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1194.31493</v>
+        <v>1997.87186</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>700.65324</v>
+        <v>714.7218999999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1190.89011</v>
+        <v>1249.9008</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>997.95912</v>
+        <v>1014.6198</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>901.60615</v>
+        <v>1870.02699</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4293.67798</v>
+        <v>6139.74183</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1839.56357</v>
+        <v>3269.86834</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1648.06335</v>
+        <v>7172.36632</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1069.51894</v>
+        <v>2825.49353</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4813.60312</v>
+        <v>11640.64483</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3546.9715</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5408.23757</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>7779.068</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>164.54391</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>73.03568</v>
+        <v>75.81492</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>126.14221</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>107.1808</v>
+        <v>109.13801</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>83.76284</v>
+        <v>90.24939999999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>160.6296</v>
+        <v>161.05736</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>139.08187</v>
+        <v>161.41623</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>243.51624</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>160.71666</v>
+        <v>161.26466</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>190.11598</v>
+        <v>190.73496</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>215.04715</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>217.03944</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>166.933</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>233.32386</v>
+        <v>669.5499100000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>58.69756</v>
@@ -2246,13 +2317,13 @@
         <v>113.51638</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>71.12255</v>
+        <v>75.23955000000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>184.67811</v>
+        <v>194.70611</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>19.91491</v>
+        <v>59.82391</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>178.60301</v>
@@ -2267,16 +2338,21 @@
         <v>184.70812</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>525.8524399999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>524.52744</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>263.319</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>3.05305</v>
+        <v>3.30267</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>4e-05</v>
@@ -2288,7 +2364,7 @@
         <v>8.928060000000002</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>7.57665</v>
+        <v>50.31317</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.00241</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>72.22645</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>379.99243</v>
+        <v>690.3318200000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>296.07623</v>
+        <v>307.36002</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>340.26262</v>
+        <v>399.27331</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>369.28417</v>
+        <v>379.84401</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>427.72869</v>
+        <v>1336.8638</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>600.73568</v>
+        <v>2405.36623</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1008.92492</v>
+        <v>2341.73011</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>644.7380000000001</v>
+        <v>6139.97831</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>503.63026</v>
+        <v>2251.32853</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3713.46813</v>
+        <v>10535.30917</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2202.18241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3811.39264</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6074.826</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>28.56041</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>78.87196</v>
@@ -2414,7 +2505,7 @@
         <v>47.89005</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>58.19217</v>
+        <v>58.27956</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>1.49404</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>80.62065</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>273.792</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>305.96931</v>
+        <v>362.71118</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>224.46274</v>
+        <v>224.46837</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>544.6100700000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>429.36612</v>
+        <v>429.39275</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>165.2552</v>
+        <v>165.28985</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3465.776710000001</v>
+        <v>3466.87325</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>448.86011</v>
+        <v>524.0253299999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>505.1292099999999</v>
+        <v>534.10448</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>242.17908</v>
+        <v>249.9074</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>369.00383</v>
+        <v>373.58552</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>451.0424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>702.4309499999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>979.308</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2480.85384</v>
+        <v>3164.31057</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1871.5348</v>
+        <v>1999.39493</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1927.22249</v>
+        <v>2049.53276</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2130.74625</v>
+        <v>2363.06693</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1432.13537</v>
+        <v>1710.77252</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1702.16884</v>
+        <v>1857.11613</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1582.87704</v>
+        <v>1853.05885</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1894.02749</v>
+        <v>2356.32082</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1982.81745</v>
+        <v>2523.06084</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5263.869529999999</v>
+        <v>5885.87526</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5193.65834</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7870.91318</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5589.81</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2311.65418</v>
+        <v>2995.11091</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1736.86692</v>
+        <v>1864.72705</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1820.96014</v>
+        <v>1943.27041</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1971.1325</v>
+        <v>2163.5428</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1381.2311</v>
+        <v>1618.03743</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1655.60734</v>
+        <v>1810.55463</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1496.46933</v>
+        <v>1766.65114</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1853.76766</v>
+        <v>2316.06099</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1922.72042</v>
+        <v>2462.96381</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5099.51825</v>
+        <v>5721.523980000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4984.187339999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>7661.44218</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5494.018</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>169.19966</v>
@@ -2558,10 +2669,10 @@
         <v>106.26235</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>159.61375</v>
+        <v>199.52413</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>50.90427</v>
+        <v>92.73509</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>46.5615</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>209.471</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>95.792</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6611.19335</v>
+        <v>5755.949560000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>9349.238029999999</v>
+        <v>9936.95299</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>10272.15418</v>
+        <v>10469.2286</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>10624.39767</v>
+        <v>9924.729559999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7457.46188</v>
+        <v>6087.69045</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5193.30116</v>
+        <v>4770.540670000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>10761.70472</v>
+        <v>9502.93758</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6582.262029999999</v>
+        <v>-1158.06665</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2940.85633</v>
+        <v>4006.77687</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>13882.23179</v>
+        <v>10580.26414</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6096.07933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7631.00758</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>28475.732</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1277.44405</v>
+        <v>1330.75901</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1508.68304</v>
+        <v>1640.41259</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2164.72903</v>
+        <v>2247.02548</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2009.90384</v>
+        <v>2100.44698</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2007.34592</v>
+        <v>2458.14911</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1678.17185</v>
+        <v>1826.12759</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1820.97684</v>
+        <v>2031.70013</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3122.22098</v>
+        <v>12369.90526</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3718.15764</v>
+        <v>4442.45904</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5615.8331</v>
+        <v>6213.12107</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4782.80853</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5602.54767</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6375.985</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4.45887</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>48.28181</v>
+        <v>48.28897</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>25.14983</v>
@@ -2681,7 +2807,7 @@
         <v>21.53382</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>153.22025</v>
+        <v>192.40118</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>11.26549</v>
@@ -2690,97 +2816,112 @@
         <v>38.20347</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>119.40478</v>
+        <v>218.90004</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>72.26509</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2.03852</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>72.03852000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1272.98518</v>
+        <v>1326.30014</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1460.40123</v>
+        <v>1592.12362</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2139.5792</v>
+        <v>2221.87565</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1975.06783</v>
+        <v>2065.61097</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1985.8121</v>
+        <v>2436.61529</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1524.9516</v>
+        <v>1633.72641</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1809.71135</v>
+        <v>2020.43464</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3084.01751</v>
+        <v>12331.70179</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3598.75286</v>
+        <v>4223.559</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5543.56801</v>
+        <v>6140.855979999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4780.77001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5530.509150000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6375.124</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1464.58565</v>
+        <v>1535.04911</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1950.80793</v>
+        <v>2034.12778</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>15232.49148</v>
+        <v>19220.58356</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2159.84877</v>
+        <v>2434.14961</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1952.13435</v>
+        <v>2313.01199</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5801.29983</v>
+        <v>7335.75957</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5767.44174</v>
+        <v>7369.536139999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8268.4118</v>
+        <v>9717.793469999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2814.82421</v>
+        <v>3098.47165</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8181.05927</v>
+        <v>8658.011710000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2987.06823</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3378.8263</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>6351.042</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>14.27604</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>25.33995</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>47.692</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>221.03349</v>
+        <v>232.53349</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>122.08609</v>
+        <v>131.85295</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1309.50219</v>
+        <v>1313.83059</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>331.08482</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>14.12642</v>
+        <v>23.07821</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>22.28658</v>
+        <v>24.92423</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>336.46596</v>
+        <v>359.09023</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>63.48902</v>
+        <v>73.32529</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>135.5719</v>
+        <v>160.64708</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>54.90813000000001</v>
+        <v>86.73495999999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>186.29367</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>228.85556</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>348.853</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1229.27612</v>
+        <v>1288.23958</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1812.19409</v>
+        <v>1885.74708</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>13919.31624</v>
+        <v>17903.07992</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1827.77666</v>
+        <v>2102.0775</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1861.11803</v>
+        <v>2213.04388</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5682.52259</v>
+        <v>7214.34468</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5387.975780000001</v>
+        <v>6967.44591</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8204.922780000001</v>
+        <v>9644.46818</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2679.252309999999</v>
+        <v>2937.82457</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>8120.586189999999</v>
+        <v>8565.711800000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2775.43461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3124.63079</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5954.497</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6424.05175</v>
+        <v>5551.659460000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>8907.113140000001</v>
+        <v>9543.237800000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2795.60827</v>
+        <v>-6504.32948</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10474.45274</v>
+        <v>9591.02693</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>7512.673449999999</v>
+        <v>6232.82757</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1070.17318</v>
+        <v>-739.0913099999998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6815.23982</v>
+        <v>4165.101570000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1436.07121</v>
+        <v>1494.04514</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3844.18976</v>
+        <v>5350.76426</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>11317.00562</v>
+        <v>8135.3735</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>7891.81963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9854.728949999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>28500.675</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2335.5495</v>
+        <v>2534.18843</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2920.89253</v>
+        <v>2978.64985</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3135.14377</v>
+        <v>3343.23454</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3371.11547</v>
+        <v>3487.15796</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2628.96119</v>
+        <v>2992.38442</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2964.30015</v>
+        <v>3194.62946</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3239.02321</v>
+        <v>3415.33914</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3206.70069</v>
+        <v>3674.38394</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>3036.66052</v>
+        <v>3710.49844</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6363.83121</v>
+        <v>6696.383140000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6058.25927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6265.80749</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>9894.76</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4088.50225</v>
+        <v>3017.47103</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5986.22061</v>
+        <v>6564.58795</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5930.75204</v>
+        <v>-9847.56402</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>7103.33727</v>
+        <v>6103.86897</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4883.712259999999</v>
+        <v>3240.443150000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1894.12697</v>
+        <v>-3933.72077</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3576.21661</v>
+        <v>749.7624300000002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1770.62948</v>
+        <v>-2180.3388</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>807.52924</v>
+        <v>1640.26582</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4953.17441</v>
+        <v>1438.99036</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1833.56036</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3588.92146</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>18605.915</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1662</v>
+        <v>1686</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1664</v>
+        <v>1686</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1636</v>
+        <v>1668</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1508</v>
+        <v>1544</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1288</v>
+        <v>1335</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1224</v>
+        <v>1275</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1109</v>
+        <v>1172</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1063</v>
+        <v>1128</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1085</v>
+        <v>1173</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1211</v>
+        <v>1279</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1346</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>